--- a/AAII_Financials/Quarterly/DXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DXR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>DXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,69 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -737,7 +741,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>300</v>
@@ -749,21 +753,24 @@
         <v>300</v>
       </c>
       <c r="K8" s="3">
+        <v>300</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -772,7 +779,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -784,21 +791,24 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -807,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
@@ -822,13 +832,16 @@
         <v>200</v>
       </c>
       <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +855,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,8 +891,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,8 +929,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -947,8 +967,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,8 +1005,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,13 +1020,14 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1009,13 +1036,13 @@
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -1024,18 +1051,21 @@
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1044,28 +1074,31 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>200</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J18" s="3">
         <v>100</v>
       </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,43 +1112,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-800</v>
       </c>
       <c r="H20" s="3">
         <v>-800</v>
       </c>
       <c r="I20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1149,8 +1186,11 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1184,43 +1224,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-600</v>
       </c>
       <c r="H23" s="3">
         <v>-600</v>
       </c>
       <c r="I23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1231,11 +1277,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1246,16 +1292,19 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,19 +1338,22 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-600</v>
       </c>
       <c r="G26" s="3">
         <v>-600</v>
@@ -1310,33 +1362,36 @@
         <v>-600</v>
       </c>
       <c r="I26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-600</v>
       </c>
       <c r="G27" s="3">
         <v>-600</v>
@@ -1345,22 +1400,25 @@
         <v>-600</v>
       </c>
       <c r="I27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1452,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1490,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,54 +1566,60 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>800</v>
       </c>
       <c r="H32" s="3">
         <v>800</v>
       </c>
       <c r="I32" s="3">
+        <v>800</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-600</v>
       </c>
       <c r="G33" s="3">
         <v>-600</v>
@@ -1555,22 +1628,25 @@
         <v>-600</v>
       </c>
       <c r="I33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,19 +1680,22 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-600</v>
       </c>
       <c r="G35" s="3">
         <v>-600</v>
@@ -1625,62 +1704,68 @@
         <v>-600</v>
       </c>
       <c r="I35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,8 +1795,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1744,8 +1831,11 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1779,43 +1869,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1849,8 +1945,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1860,8 +1959,8 @@
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1884,8 +1983,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1919,43 +2021,49 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E47" s="3">
         <v>17600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>17200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>17100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>18100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1989,8 +2097,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2024,8 +2135,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,8 +2211,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2105,32 +2225,35 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2500</v>
       </c>
       <c r="K52" s="3">
         <v>2500</v>
       </c>
       <c r="L52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M52" s="3">
         <v>7400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E54" s="3">
         <v>18000</v>
-      </c>
-      <c r="E54" s="3">
-        <v>17600</v>
       </c>
       <c r="F54" s="3">
         <v>17600</v>
       </c>
       <c r="G54" s="3">
+        <v>17600</v>
+      </c>
+      <c r="H54" s="3">
         <v>19300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>20900</v>
       </c>
       <c r="K54" s="3">
         <v>20900</v>
       </c>
       <c r="L54" s="3">
+        <v>20900</v>
+      </c>
+      <c r="M54" s="3">
         <v>31100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,78 +2359,85 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>4400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2311,19 +2448,19 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -2332,10 +2469,13 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2369,8 +2509,11 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2404,8 +2547,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2439,8 +2585,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E72" s="3">
         <v>17500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E76" s="3">
         <v>13600</v>
-      </c>
-      <c r="E76" s="3">
-        <v>13100</v>
       </c>
       <c r="F76" s="3">
         <v>13100</v>
       </c>
       <c r="G76" s="3">
+        <v>13100</v>
+      </c>
+      <c r="H76" s="3">
         <v>13800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,59 +3133,65 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-600</v>
       </c>
       <c r="G81" s="3">
         <v>-600</v>
@@ -3005,22 +3200,25 @@
         <v>-600</v>
       </c>
       <c r="I81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,8 +3232,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3069,8 +3268,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,8 +3514,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3329,8 +3550,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,8 +3626,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3434,8 +3664,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,8 +3682,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3464,11 +3698,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-100</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3484,8 +3718,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,43 +3832,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3659,8 +3908,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3668,11 +3920,11 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -3692,6 +3944,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DXR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>DXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -744,7 +748,7 @@
         <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>300</v>
@@ -756,24 +760,27 @@
         <v>300</v>
       </c>
       <c r="L8" s="3">
+        <v>300</v>
+      </c>
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
@@ -782,7 +789,7 @@
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -794,16 +801,19 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
-      </c>
-      <c r="M9" s="3">
-        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,7 +821,7 @@
         <v>-100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -820,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
@@ -835,13 +845,16 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +908,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,8 +949,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -970,8 +990,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1031,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,8 +1047,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1030,7 +1057,7 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -1039,13 +1066,13 @@
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1054,22 +1081,25 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
@@ -1077,28 +1107,31 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>200</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K18" s="3">
         <v>100</v>
       </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,46 +1146,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-800</v>
       </c>
       <c r="I20" s="3">
         <v>-800</v>
       </c>
       <c r="J20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1189,8 +1226,11 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1227,51 +1267,57 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-600</v>
       </c>
       <c r="I23" s="3">
         <v>-600</v>
       </c>
       <c r="J23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1280,11 +1326,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1295,16 +1341,19 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,22 +1390,25 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-600</v>
       </c>
       <c r="H26" s="3">
         <v>-600</v>
@@ -1365,36 +1417,39 @@
         <v>-600</v>
       </c>
       <c r="J26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-600</v>
       </c>
       <c r="H27" s="3">
         <v>-600</v>
@@ -1403,22 +1458,25 @@
         <v>-600</v>
       </c>
       <c r="J27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1554,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,60 +1636,66 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>800</v>
       </c>
       <c r="I32" s="3">
         <v>800</v>
       </c>
       <c r="J32" s="3">
+        <v>800</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-600</v>
       </c>
       <c r="H33" s="3">
         <v>-600</v>
@@ -1631,22 +1704,25 @@
         <v>-600</v>
       </c>
       <c r="J33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,22 +1759,25 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-600</v>
       </c>
       <c r="H35" s="3">
         <v>-600</v>
@@ -1707,65 +1786,71 @@
         <v>-600</v>
       </c>
       <c r="J35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,8 +1882,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1834,8 +1921,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1872,8 +1962,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1881,37 +1974,40 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>400</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1948,8 +2044,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1962,8 +2061,8 @@
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1986,8 +2085,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2024,46 +2126,52 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E47" s="3">
         <v>14000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>17600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>17200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2100,8 +2208,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2138,8 +2249,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,13 +2331,16 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>2800</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
@@ -2228,32 +2348,35 @@
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2500</v>
       </c>
       <c r="L52" s="3">
         <v>2500</v>
       </c>
       <c r="M52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N52" s="3">
         <v>7400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E54" s="3">
         <v>14200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18000</v>
-      </c>
-      <c r="F54" s="3">
-        <v>17600</v>
       </c>
       <c r="G54" s="3">
         <v>17600</v>
       </c>
       <c r="H54" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I54" s="3">
         <v>19300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20600</v>
-      </c>
-      <c r="K54" s="3">
-        <v>20900</v>
       </c>
       <c r="L54" s="3">
         <v>20900</v>
       </c>
       <c r="M54" s="3">
+        <v>20900</v>
+      </c>
+      <c r="N54" s="3">
         <v>31100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,89 +2490,96 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2451,19 +2588,19 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -2472,10 +2609,13 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2512,8 +2652,11 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2550,8 +2693,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2588,8 +2734,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E76" s="3">
         <v>12800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13600</v>
-      </c>
-      <c r="F76" s="3">
-        <v>13100</v>
       </c>
       <c r="G76" s="3">
         <v>13100</v>
       </c>
       <c r="H76" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I76" s="3">
         <v>13800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,65 +3325,71 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-600</v>
       </c>
       <c r="H81" s="3">
         <v>-600</v>
@@ -3203,22 +3398,25 @@
         <v>-600</v>
       </c>
       <c r="J81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,8 +3431,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3271,8 +3470,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,8 +3735,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3553,8 +3774,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,8 +3856,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3667,8 +3897,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,8 +3916,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3701,11 +3935,11 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-100</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3955,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,46 +4078,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3911,8 +4160,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3923,11 +4175,11 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -3947,6 +4199,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DXR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>DXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -739,7 +743,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
@@ -751,7 +755,7 @@
         <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
@@ -763,27 +767,30 @@
         <v>300</v>
       </c>
       <c r="M8" s="3">
+        <v>300</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
@@ -792,7 +799,7 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -804,27 +811,30 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
-      </c>
-      <c r="N9" s="3">
-        <v>300</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E10" s="3">
         <v>-100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -833,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -848,13 +858,16 @@
         <v>200</v>
       </c>
       <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,8 +969,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -993,8 +1013,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,8 +1057,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,19 +1074,20 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1069,13 +1096,13 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1084,25 +1111,28 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1110,28 +1140,31 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>200</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L18" s="3">
         <v>100</v>
       </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,49 +1180,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-800</v>
       </c>
       <c r="J20" s="3">
         <v>-800</v>
       </c>
       <c r="K20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1229,8 +1266,11 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1270,58 +1310,64 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-600</v>
       </c>
       <c r="J23" s="3">
         <v>-600</v>
       </c>
       <c r="K23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1329,11 +1375,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1344,16 +1390,19 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,25 +1442,28 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-600</v>
       </c>
       <c r="I26" s="3">
         <v>-600</v>
@@ -1420,39 +1472,42 @@
         <v>-600</v>
       </c>
       <c r="K26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-600</v>
       </c>
       <c r="I27" s="3">
         <v>-600</v>
@@ -1461,22 +1516,25 @@
         <v>-600</v>
       </c>
       <c r="K27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1557,8 +1618,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,66 +1706,72 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>800</v>
       </c>
       <c r="J32" s="3">
         <v>800</v>
       </c>
       <c r="K32" s="3">
+        <v>800</v>
+      </c>
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-600</v>
       </c>
       <c r="I33" s="3">
         <v>-600</v>
@@ -1707,22 +1780,25 @@
         <v>-600</v>
       </c>
       <c r="K33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,25 +1838,28 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-600</v>
       </c>
       <c r="I35" s="3">
         <v>-600</v>
@@ -1789,68 +1868,74 @@
         <v>-600</v>
       </c>
       <c r="K35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,8 +1969,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1924,8 +2011,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1965,49 +2055,55 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2047,8 +2143,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2064,8 +2163,8 @@
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2088,8 +2187,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2129,49 +2231,55 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E47" s="3">
         <v>12000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>14000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>17600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>17100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2211,8 +2319,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2252,8 +2363,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,16 +2451,19 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -2351,32 +2471,35 @@
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2500</v>
       </c>
       <c r="M52" s="3">
         <v>2500</v>
       </c>
       <c r="N52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O52" s="3">
         <v>7400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E54" s="3">
         <v>15000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>17600</v>
       </c>
       <c r="H54" s="3">
         <v>17600</v>
       </c>
       <c r="I54" s="3">
+        <v>17600</v>
+      </c>
+      <c r="J54" s="3">
         <v>19300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>20900</v>
       </c>
       <c r="M54" s="3">
         <v>20900</v>
       </c>
       <c r="N54" s="3">
+        <v>20900</v>
+      </c>
+      <c r="O54" s="3">
         <v>31100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,99 +2621,106 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
@@ -2591,19 +2728,19 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -2612,10 +2749,13 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2655,8 +2795,11 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2696,8 +2839,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2737,8 +2883,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E72" s="3">
         <v>13000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E76" s="3">
         <v>11200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>13100</v>
       </c>
       <c r="H76" s="3">
         <v>13100</v>
       </c>
       <c r="I76" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J76" s="3">
         <v>13800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,71 +3517,77 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-600</v>
       </c>
       <c r="I81" s="3">
         <v>-600</v>
@@ -3401,22 +3596,25 @@
         <v>-600</v>
       </c>
       <c r="K81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,8 +3630,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3473,8 +3672,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,8 +3956,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3777,8 +3998,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,8 +4086,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3900,8 +4130,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,8 +4150,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3938,11 +4172,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-100</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -3958,8 +4192,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,49 +4324,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4163,13 +4412,16 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4178,11 +4430,11 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4202,6 +4454,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DXR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>DXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,7 +750,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
@@ -758,7 +762,7 @@
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>300</v>
@@ -770,16 +774,19 @@
         <v>300</v>
       </c>
       <c r="N8" s="3">
+        <v>300</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,13 +794,13 @@
         <v>400</v>
       </c>
       <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
@@ -802,7 +809,7 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -814,16 +821,19 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>300</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -831,13 +841,13 @@
         <v>-300</v>
       </c>
       <c r="E10" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F10" s="3">
         <v>-100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -846,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -861,13 +871,16 @@
         <v>200</v>
       </c>
       <c r="O10" s="3">
+        <v>200</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,8 +989,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1016,8 +1036,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,8 +1101,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1084,13 +1111,13 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1099,13 +1126,13 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1114,13 +1141,16 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,14 +1158,14 @@
         <v>-300</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1143,28 +1173,31 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>200</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M18" s="3">
         <v>100</v>
       </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,52 +1214,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-800</v>
       </c>
       <c r="K20" s="3">
         <v>-800</v>
       </c>
       <c r="L20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1269,8 +1306,11 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1313,63 +1353,69 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-600</v>
       </c>
       <c r="K23" s="3">
         <v>-600</v>
       </c>
       <c r="L23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1378,11 +1424,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1393,16 +1439,19 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,28 +1494,31 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-600</v>
       </c>
       <c r="J26" s="3">
         <v>-600</v>
@@ -1475,42 +1527,45 @@
         <v>-600</v>
       </c>
       <c r="L26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-600</v>
       </c>
       <c r="J27" s="3">
         <v>-600</v>
@@ -1519,22 +1574,25 @@
         <v>-600</v>
       </c>
       <c r="L27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,72 +1776,78 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>800</v>
       </c>
       <c r="K32" s="3">
         <v>800</v>
       </c>
       <c r="L32" s="3">
+        <v>800</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-600</v>
       </c>
       <c r="J33" s="3">
         <v>-600</v>
@@ -1783,22 +1856,25 @@
         <v>-600</v>
       </c>
       <c r="L33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,28 +1917,31 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-600</v>
       </c>
       <c r="J35" s="3">
         <v>-600</v>
@@ -1871,71 +1950,77 @@
         <v>-600</v>
       </c>
       <c r="L35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,8 +2056,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2014,8 +2101,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2058,52 +2148,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>400</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2146,8 +2242,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2166,8 +2265,8 @@
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2190,8 +2289,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2234,52 +2336,58 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E47" s="3">
         <v>15700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>14000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>17200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>17100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2322,8 +2430,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2366,8 +2477,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,8 +2571,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2463,10 +2583,10 @@
         <v>600</v>
       </c>
       <c r="E52" s="3">
+        <v>600</v>
+      </c>
+      <c r="F52" s="3">
         <v>2800</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
@@ -2474,32 +2594,35 @@
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2500</v>
       </c>
       <c r="N52" s="3">
         <v>2500</v>
       </c>
       <c r="O52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P52" s="3">
         <v>7400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E54" s="3">
         <v>16600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>17600</v>
       </c>
       <c r="I54" s="3">
         <v>17600</v>
       </c>
       <c r="J54" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K54" s="3">
         <v>19300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>20900</v>
       </c>
       <c r="N54" s="3">
         <v>20900</v>
       </c>
       <c r="O54" s="3">
+        <v>20900</v>
+      </c>
+      <c r="P54" s="3">
         <v>31100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,96 +2752,103 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2719,11 +2856,11 @@
         <v>600</v>
       </c>
       <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
@@ -2731,19 +2868,19 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -2752,10 +2889,13 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2798,8 +2938,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2842,8 +2985,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2886,8 +3032,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E72" s="3">
         <v>14900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E76" s="3">
         <v>15700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>13100</v>
       </c>
       <c r="I76" s="3">
         <v>13100</v>
       </c>
       <c r="J76" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K76" s="3">
         <v>13800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,77 +3709,83 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-600</v>
       </c>
       <c r="J81" s="3">
         <v>-600</v>
@@ -3599,22 +3794,25 @@
         <v>-600</v>
       </c>
       <c r="L81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,8 +3829,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3675,8 +3874,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,8 +4177,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4001,8 +4222,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,8 +4316,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4133,8 +4363,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,8 +4384,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4175,11 +4409,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4195,8 +4429,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,52 +4570,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4415,17 +4664,20 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -4433,11 +4685,11 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4457,6 +4709,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>
